--- a/ПРИМЕР.xlsx
+++ b/ПРИМЕР.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\УСПЕХ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 9\Desktop\cansat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ECE5CC5C-78D5-45D3-8391-2010607398B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419E889F-A7AE-4CC4-971F-1D04E1906EDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Команда 1, телеметрия с CD карт" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1115">
   <si>
     <t>Sporadic-D</t>
   </si>
@@ -2867,16 +2867,514 @@
   </si>
   <si>
     <t>приземление</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>-0.39</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>-0.26</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>-0.50</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>-0.38</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>-0.23</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>-0.49</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>-0.78</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>-0.24</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>-0.42</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>-0.44</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>-0.27</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>-0.41</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>-0.66</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>-0.74</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>-0.75</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>-0.69</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>-0.45</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>-0.33</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>-0.61</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>-0.85</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>-0.53</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>-0.52</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>-0.62</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>-0.48</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>-0.43</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>-0.57</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>-0.63</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3024,6 +3522,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3377,7 +3882,7 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3511,11 +4016,10 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Команда 1, телеметрия с CD карт'!$B$220:$B$307</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+            <c:strRef>
+              <c:f>'Команда 1, телеметрия с CD карт'!$B$220:$B$370</c:f>
+              <c:strCache>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3597,95 +4101,836 @@
                 <c:pt idx="26">
                   <c:v>27</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Команда 1, телеметрия с CD карт'!$C$220:$C$307</c:f>
+              <c:f>'Команда 1, телеметрия с CD карт'!$C$220:$C$370</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:formatCode>#\ ##0.00\ _₽</c:formatCode>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>1.57</c:v>
+                  <c:v>1.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.71</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>1.23</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.44</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00;[Red]0.00">
-                  <c:v>142.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00;[Red]0.00">
-                  <c:v>173.71</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00;[Red]0.00">
-                  <c:v>193.4</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00;[Red]0.00">
-                  <c:v>202.64</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00;[Red]0.00">
-                  <c:v>201.62</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00;[Red]0.00">
-                  <c:v>190.92</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00;[Red]0.00">
-                  <c:v>171.23</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00;[Red]0.00">
-                  <c:v>142.41999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00;[Red]0.00">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
+                <c:pt idx="111">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,10 +4987,9 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Команда 1, телеметрия с CD карт'!$B$222:$B$246</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
@@ -3822,8 +5066,8 @@
                 <c:pt idx="24">
                   <c:v>27</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3961,10 +5205,9 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Команда 1, телеметрия с CD карт'!$B$228:$B$246</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
@@ -4023,8 +5266,8 @@
                 <c:pt idx="18">
                   <c:v>27</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -4144,10 +5387,9 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Команда 1, телеметрия с CD карт'!$B$245:$B$246</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
@@ -4155,8 +5397,8 @@
                 <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -4219,8 +5461,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4269,7 +5512,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="#\ ##0.00\ _₽" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5278,15 +6521,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R349"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M216" sqref="M216"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H277" sqref="H277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -5296,10 +6541,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5352,10 +6597,10 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5408,10 +6653,10 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -5464,10 +6709,10 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -5520,10 +6765,10 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -5576,10 +6821,10 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5632,10 +6877,10 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -5688,10 +6933,10 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -5744,10 +6989,10 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -5800,10 +7045,10 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -5856,10 +7101,10 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -5912,10 +7157,10 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -5968,10 +7213,10 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -6024,10 +7269,10 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -6080,10 +7325,10 @@
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -6136,10 +7381,10 @@
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -6192,10 +7437,10 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -6248,10 +7493,10 @@
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -6304,10 +7549,10 @@
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -6360,10 +7605,10 @@
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -6416,10 +7661,10 @@
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -6472,10 +7717,10 @@
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -6528,10 +7773,10 @@
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -6584,10 +7829,10 @@
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -6640,10 +7885,10 @@
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -6696,10 +7941,10 @@
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -6752,10 +7997,10 @@
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -6808,10 +8053,10 @@
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -6864,10 +8109,10 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -6920,10 +8165,10 @@
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -6976,10 +8221,10 @@
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>134</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -7032,10 +8277,10 @@
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -7088,10 +8333,10 @@
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>140</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -7144,10 +8389,10 @@
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -7200,10 +8445,10 @@
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -7256,10 +8501,10 @@
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -7312,10 +8557,10 @@
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -7368,10 +8613,10 @@
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>155</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -7424,10 +8669,10 @@
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -7480,10 +8725,10 @@
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>161</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -7536,10 +8781,10 @@
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -7592,10 +8837,10 @@
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>169</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -7648,10 +8893,10 @@
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>173</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -7704,10 +8949,10 @@
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>177</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -7760,10 +9005,10 @@
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -7816,10 +9061,10 @@
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -7872,10 +9117,10 @@
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -7928,10 +9173,10 @@
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -7984,10 +9229,10 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -8040,10 +9285,10 @@
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -8096,10 +9341,10 @@
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>197</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -8152,10 +9397,10 @@
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -8208,10 +9453,10 @@
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>203</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -8264,10 +9509,10 @@
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>206</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -8320,10 +9565,10 @@
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>210</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -8376,10 +9621,10 @@
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -8432,10 +9677,10 @@
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>215</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -8488,10 +9733,10 @@
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -8544,10 +9789,10 @@
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -8600,10 +9845,10 @@
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>223</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -8656,10 +9901,10 @@
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="5" t="s">
         <v>226</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -8712,10 +9957,10 @@
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -8768,10 +10013,10 @@
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="5" t="s">
         <v>232</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -8824,10 +10069,10 @@
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>235</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -8880,10 +10125,10 @@
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -8936,10 +10181,10 @@
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="5" t="s">
         <v>240</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -8992,10 +10237,10 @@
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="5" t="s">
         <v>203</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -9048,10 +10293,10 @@
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -9104,10 +10349,10 @@
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="5" t="s">
         <v>246</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -9160,10 +10405,10 @@
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="5" t="s">
         <v>249</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -9216,10 +10461,10 @@
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -9272,10 +10517,10 @@
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="5" t="s">
         <v>147</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -9328,10 +10573,10 @@
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="5" t="s">
         <v>256</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -9384,10 +10629,10 @@
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -9440,10 +10685,10 @@
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -9496,10 +10741,10 @@
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="5" t="s">
         <v>263</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -9552,10 +10797,10 @@
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="5" t="s">
         <v>226</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -9608,10 +10853,10 @@
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="5" t="s">
         <v>268</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -9664,10 +10909,10 @@
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="5" t="s">
         <v>271</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -9720,10 +10965,10 @@
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -9776,10 +11021,10 @@
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="5" t="s">
         <v>282</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -9832,10 +11077,10 @@
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="5" t="s">
         <v>287</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -9888,10 +11133,10 @@
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="5" t="s">
         <v>293</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -9944,10 +11189,10 @@
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="5" t="s">
         <v>299</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -10000,10 +11245,10 @@
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="5" t="s">
         <v>305</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -10056,10 +11301,10 @@
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="5" t="s">
         <v>311</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -10112,10 +11357,10 @@
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="5" t="s">
         <v>317</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -10168,10 +11413,10 @@
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="5" t="s">
         <v>324</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -10224,10 +11469,10 @@
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="5" t="s">
         <v>331</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -10280,10 +11525,10 @@
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="5" t="s">
         <v>336</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -10336,10 +11581,10 @@
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="5" t="s">
         <v>342</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -10392,10 +11637,10 @@
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="5" t="s">
         <v>347</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -10448,10 +11693,10 @@
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="5" t="s">
         <v>354</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -10504,10 +11749,10 @@
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="5" t="s">
         <v>361</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -10560,10 +11805,10 @@
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="5" t="s">
         <v>367</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -10616,10 +11861,10 @@
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="5" t="s">
         <v>374</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -10672,10 +11917,10 @@
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="5" t="s">
         <v>380</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -10728,10 +11973,10 @@
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="5" t="s">
         <v>387</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -10784,10 +12029,10 @@
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="5" t="s">
         <v>394</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -10840,10 +12085,10 @@
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="5" t="s">
         <v>401</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -10896,10 +12141,10 @@
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="5" t="s">
         <v>408</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -10952,10 +12197,10 @@
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="5" t="s">
         <v>415</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -11008,10 +12253,10 @@
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="5" t="s">
         <v>422</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -11064,10 +12309,10 @@
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -11120,10 +12365,10 @@
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -11176,10 +12421,10 @@
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -11232,10 +12477,10 @@
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -11288,10 +12533,10 @@
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -11344,10 +12589,10 @@
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -11400,10 +12645,10 @@
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="5" t="s">
         <v>455</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -11456,10 +12701,10 @@
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="5" t="s">
         <v>459</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -11512,10 +12757,10 @@
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="5" t="s">
         <v>464</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -11568,10 +12813,10 @@
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="5" t="s">
         <v>468</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -11624,10 +12869,10 @@
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="5" t="s">
         <v>472</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -11680,10 +12925,10 @@
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="5" t="s">
         <v>464</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -11736,10 +12981,10 @@
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="5" t="s">
         <v>481</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -11792,10 +13037,10 @@
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="5" t="s">
         <v>487</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -11848,10 +13093,10 @@
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="5" t="s">
         <v>226</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -11904,10 +13149,10 @@
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="5" t="s">
         <v>500</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -11960,10 +13205,10 @@
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="5" t="s">
         <v>507</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -12016,10 +13261,10 @@
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="5" t="s">
         <v>514</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -12072,10 +13317,10 @@
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="5" t="s">
         <v>362</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -12128,10 +13373,10 @@
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -12184,10 +13429,10 @@
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="5" t="s">
         <v>226</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -12240,10 +13485,10 @@
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="5" t="s">
         <v>534</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -12296,10 +13541,10 @@
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="5" t="s">
         <v>525</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -12352,10 +13597,10 @@
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="5" t="s">
         <v>295</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -12408,10 +13653,10 @@
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="5" t="s">
         <v>549</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -12464,10 +13709,10 @@
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="5" t="s">
         <v>268</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -12520,10 +13765,10 @@
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -12576,10 +13821,10 @@
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -12632,10 +13877,10 @@
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="5" t="s">
         <v>500</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -12688,10 +13933,10 @@
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="5" t="s">
         <v>397</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -12744,10 +13989,10 @@
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="5" t="s">
         <v>577</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -12800,10 +14045,10 @@
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="5" t="s">
         <v>223</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -12856,10 +14101,10 @@
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="5" t="s">
         <v>417</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -12912,10 +14157,10 @@
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -12968,10 +14213,10 @@
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="5" t="s">
         <v>595</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -13024,10 +14269,10 @@
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="5" t="s">
         <v>600</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -13080,10 +14325,10 @@
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="5" t="s">
         <v>606</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -13136,10 +14381,10 @@
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="5" t="s">
         <v>612</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -13192,10 +14437,10 @@
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="5" t="s">
         <v>223</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -13248,10 +14493,10 @@
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="5" t="s">
         <v>319</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -13304,10 +14549,10 @@
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="5" t="s">
         <v>482</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -13360,10 +14605,10 @@
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="5" t="s">
         <v>429</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -13416,10 +14661,10 @@
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="5" t="s">
         <v>417</v>
       </c>
       <c r="D146" s="1" t="s">
@@ -13472,10 +14717,10 @@
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -13528,10 +14773,10 @@
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="5" t="s">
         <v>300</v>
       </c>
       <c r="D148" s="1" t="s">
@@ -13584,10 +14829,10 @@
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="5" t="s">
         <v>651</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -13640,10 +14885,10 @@
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -13696,10 +14941,10 @@
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="5" t="s">
         <v>663</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -13752,10 +14997,10 @@
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -13808,10 +15053,10 @@
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="5" t="s">
         <v>459</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -13864,10 +15109,10 @@
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -13920,10 +15165,10 @@
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="5" t="s">
         <v>681</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -13976,10 +15221,10 @@
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="5" t="s">
         <v>540</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -14032,10 +15277,10 @@
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="5" t="s">
         <v>307</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -14088,10 +15333,10 @@
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="5" t="s">
         <v>697</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -14144,10 +15389,10 @@
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="5" t="s">
         <v>654</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -14200,10 +15445,10 @@
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -14256,10 +15501,10 @@
       <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="5" t="s">
         <v>271</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -14312,10 +15557,10 @@
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="5" t="s">
         <v>718</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -14368,10 +15613,10 @@
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="5" t="s">
         <v>434</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -14424,10 +15669,10 @@
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -14480,10 +15725,10 @@
       <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="5" t="s">
         <v>268</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -14536,10 +15781,10 @@
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="5" t="s">
         <v>268</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -14592,10 +15837,10 @@
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="5" t="s">
         <v>747</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -14648,10 +15893,10 @@
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="5" t="s">
         <v>288</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -14704,10 +15949,10 @@
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="5" t="s">
         <v>271</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -14760,10 +16005,10 @@
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -14816,10 +16061,10 @@
       <c r="A171" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -14872,10 +16117,10 @@
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="5" t="s">
         <v>683</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -14928,10 +16173,10 @@
       <c r="A173" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="5" t="s">
         <v>326</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -14984,10 +16229,10 @@
       <c r="A174" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="5" t="s">
         <v>482</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -15040,10 +16285,10 @@
       <c r="A175" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -15096,10 +16341,10 @@
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="5" t="s">
         <v>789</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -15152,10 +16397,10 @@
       <c r="A177" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="5" t="s">
         <v>793</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -15208,10 +16453,10 @@
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="5" t="s">
         <v>798</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -15264,10 +16509,10 @@
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="5" t="s">
         <v>803</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -15320,10 +16565,10 @@
       <c r="A180" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -15376,10 +16621,10 @@
       <c r="A181" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -15432,10 +16677,10 @@
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="5" t="s">
         <v>817</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -15488,10 +16733,10 @@
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -15544,10 +16789,10 @@
       <c r="A184" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="5" t="s">
         <v>826</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -15600,10 +16845,10 @@
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="5" t="s">
         <v>355</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -15656,10 +16901,10 @@
       <c r="A186" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="5" t="s">
         <v>461</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -15712,10 +16957,10 @@
       <c r="A187" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="5" t="s">
         <v>613</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -15768,10 +17013,10 @@
       <c r="A188" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -15824,10 +17069,10 @@
       <c r="A189" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="5" t="s">
         <v>848</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -15880,10 +17125,10 @@
       <c r="A190" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="5" t="s">
         <v>853</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -15936,10 +17181,10 @@
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="5" t="s">
         <v>858</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -15992,10 +17237,10 @@
       <c r="A192" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="5" t="s">
         <v>140</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -16048,10 +17293,10 @@
       <c r="A193" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="5" t="s">
         <v>169</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -16104,10 +17349,10 @@
       <c r="A194" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="5" t="s">
         <v>803</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -16160,10 +17405,10 @@
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="5" t="s">
         <v>877</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -16216,10 +17461,10 @@
       <c r="A196" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="5" t="s">
         <v>882</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -16272,10 +17517,10 @@
       <c r="A197" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="5" t="s">
         <v>568</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -16328,10 +17573,10 @@
       <c r="A198" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="5" t="s">
         <v>893</v>
       </c>
       <c r="D198" s="1" t="s">
@@ -16384,10 +17629,10 @@
       <c r="A199" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -16440,10 +17685,10 @@
       <c r="A200" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="5" t="s">
         <v>451</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -16496,10 +17741,10 @@
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="5" t="s">
         <v>884</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -16552,10 +17797,10 @@
       <c r="A202" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="5" t="s">
         <v>817</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -16608,10 +17853,10 @@
       <c r="A203" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="5" t="s">
         <v>918</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -16664,10 +17909,10 @@
       <c r="A204" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="5" t="s">
         <v>882</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -16720,10 +17965,10 @@
       <c r="A205" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="5" t="s">
         <v>882</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -16776,10 +18021,10 @@
       <c r="A206" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="5" t="s">
         <v>933</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -16832,10 +18077,10 @@
       <c r="A207" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="5" t="s">
         <v>938</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -16885,7 +18130,7 @@
       </c>
     </row>
     <row r="219" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C219" t="s">
+      <c r="C219" s="5" t="s">
         <v>944</v>
       </c>
       <c r="D219" t="s">
@@ -16902,11 +18147,11 @@
       </c>
     </row>
     <row r="220" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220" s="4">
-        <v>1.57</v>
+      <c r="B220" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="5">
+        <v>1.73</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -16923,11 +18168,11 @@
       <c r="N220" s="2"/>
     </row>
     <row r="221" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B221">
-        <v>2</v>
-      </c>
-      <c r="C221" s="4">
-        <v>1.23</v>
+      <c r="B221" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C221" s="5">
+        <v>1.58</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -16944,11 +18189,11 @@
       <c r="N221" s="2"/>
     </row>
     <row r="222" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B222">
-        <v>3</v>
-      </c>
-      <c r="C222" s="4">
-        <v>33.4</v>
+      <c r="B222" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C222" s="5">
+        <v>1.19</v>
       </c>
       <c r="D222">
         <v>33.4</v>
@@ -16965,11 +18210,11 @@
       <c r="N222" s="2"/>
     </row>
     <row r="223" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B223">
-        <v>4</v>
-      </c>
-      <c r="C223" s="4">
-        <v>97.44</v>
+      <c r="B223" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C223" s="5">
+        <v>1.48</v>
       </c>
       <c r="D223">
         <v>33.4</v>
@@ -16986,11 +18231,11 @@
       <c r="N223" s="2"/>
     </row>
     <row r="224" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B224">
-        <v>5</v>
+      <c r="B224" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C224" s="5">
-        <v>142.08000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="D224">
         <v>33.4</v>
@@ -17007,11 +18252,11 @@
       <c r="N224" s="2"/>
     </row>
     <row r="225" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B225">
-        <v>6</v>
+      <c r="B225" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C225" s="5">
-        <v>173.71</v>
+        <v>1.35</v>
       </c>
       <c r="D225">
         <v>33.4</v>
@@ -17028,11 +18273,11 @@
       <c r="N225" s="2"/>
     </row>
     <row r="226" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B226">
-        <v>7</v>
+      <c r="B226" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C226" s="5">
-        <v>193.4</v>
+        <v>14.64</v>
       </c>
       <c r="D226">
         <v>33.4</v>
@@ -17049,11 +18294,11 @@
       <c r="N226" s="2"/>
     </row>
     <row r="227" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B227">
-        <v>8</v>
+      <c r="B227" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C227" s="5">
-        <v>202.64</v>
+        <v>60.67</v>
       </c>
       <c r="D227">
         <v>33.4</v>
@@ -17070,11 +18315,11 @@
       <c r="N227" s="2"/>
     </row>
     <row r="228" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B228">
-        <v>9</v>
+      <c r="B228" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C228" s="5">
-        <v>201.62</v>
+        <v>96.71</v>
       </c>
       <c r="D228">
         <v>33.4</v>
@@ -17091,11 +18336,11 @@
       <c r="N228" s="2"/>
     </row>
     <row r="229" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B229">
-        <v>10</v>
+      <c r="B229" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C229" s="5">
-        <v>190.92</v>
+        <v>122.33</v>
       </c>
       <c r="D229">
         <v>33.4</v>
@@ -17112,11 +18357,11 @@
       <c r="N229" s="2"/>
     </row>
     <row r="230" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B230">
-        <v>11</v>
+      <c r="B230" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C230" s="5">
-        <v>171.23</v>
+        <v>137.52000000000001</v>
       </c>
       <c r="D230">
         <v>33.4</v>
@@ -17132,11 +18377,11 @@
       </c>
     </row>
     <row r="231" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B231">
-        <v>12</v>
+      <c r="B231" s="4" t="s">
+        <v>949</v>
       </c>
       <c r="C231" s="5">
-        <v>142.41999999999999</v>
+        <v>142.13999999999999</v>
       </c>
       <c r="D231">
         <v>33.4</v>
@@ -17153,11 +18398,11 @@
       <c r="N231" s="3"/>
     </row>
     <row r="232" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B232">
-        <v>13</v>
+      <c r="B232" s="4" t="s">
+        <v>950</v>
       </c>
       <c r="C232" s="5">
-        <v>105</v>
+        <v>135.86000000000001</v>
       </c>
       <c r="D232">
         <v>33.4</v>
@@ -17174,11 +18419,11 @@
       <c r="N232" s="3"/>
     </row>
     <row r="233" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B233">
-        <v>14</v>
-      </c>
-      <c r="C233" s="4">
-        <v>84</v>
+      <c r="B233" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C233" s="5">
+        <v>121.24</v>
       </c>
       <c r="D233">
         <v>33.4</v>
@@ -17195,11 +18440,11 @@
       <c r="N233" s="2"/>
     </row>
     <row r="234" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B234">
-        <v>15</v>
-      </c>
-      <c r="C234" s="4">
-        <v>75</v>
+      <c r="B234" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C234" s="5">
+        <v>98.38</v>
       </c>
       <c r="D234">
         <v>33.4</v>
@@ -17216,11 +18461,11 @@
       <c r="N234" s="2"/>
     </row>
     <row r="235" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B235">
-        <v>16</v>
-      </c>
-      <c r="C235" s="4">
-        <v>69</v>
+      <c r="B235" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C235" s="5">
+        <v>81.33</v>
       </c>
       <c r="D235">
         <v>33.4</v>
@@ -17237,11 +18482,11 @@
       <c r="N235" s="3"/>
     </row>
     <row r="236" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B236">
-        <v>17</v>
-      </c>
-      <c r="C236" s="4">
-        <v>60</v>
+      <c r="B236" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="C236" s="5">
+        <v>58.44</v>
       </c>
       <c r="D236">
         <v>33.4</v>
@@ -17258,11 +18503,11 @@
       <c r="N236" s="3"/>
     </row>
     <row r="237" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B237">
-        <v>18</v>
-      </c>
-      <c r="C237" s="4">
-        <v>54</v>
+      <c r="B237" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C237" s="5">
+        <v>51.67</v>
       </c>
       <c r="D237">
         <v>33.4</v>
@@ -17279,11 +18524,11 @@
       <c r="N237" s="3"/>
     </row>
     <row r="238" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B238">
-        <v>19</v>
-      </c>
-      <c r="C238" s="4">
-        <v>46</v>
+      <c r="B238" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="C238" s="5">
+        <v>47.23</v>
       </c>
       <c r="D238">
         <v>33.4</v>
@@ -17300,11 +18545,11 @@
       <c r="N238" s="3"/>
     </row>
     <row r="239" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B239">
-        <v>20</v>
-      </c>
-      <c r="C239" s="4">
-        <v>39</v>
+      <c r="B239" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="C239" s="5">
+        <v>42.14</v>
       </c>
       <c r="D239">
         <v>33.4</v>
@@ -17321,11 +18566,11 @@
       <c r="N239" s="3"/>
     </row>
     <row r="240" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B240">
-        <v>21</v>
-      </c>
-      <c r="C240" s="4">
-        <v>32</v>
+      <c r="B240" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="C240" s="5">
+        <v>37.32</v>
       </c>
       <c r="D240">
         <v>33.4</v>
@@ -17342,11 +18587,11 @@
       <c r="N240" s="3"/>
     </row>
     <row r="241" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B241">
-        <v>22</v>
-      </c>
-      <c r="C241" s="4">
-        <v>24</v>
+      <c r="B241" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C241" s="5">
+        <v>32.65</v>
       </c>
       <c r="D241">
         <v>33.4</v>
@@ -17363,11 +18608,11 @@
       <c r="N241" s="3"/>
     </row>
     <row r="242" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B242">
-        <v>23</v>
-      </c>
-      <c r="C242" s="4">
-        <v>19</v>
+      <c r="B242" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="C242" s="5">
+        <v>25.67</v>
       </c>
       <c r="D242">
         <v>33.4</v>
@@ -17384,11 +18629,11 @@
       <c r="N242" s="3"/>
     </row>
     <row r="243" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B243">
-        <v>24</v>
-      </c>
-      <c r="C243" s="4">
-        <v>11</v>
+      <c r="B243" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C243" s="5">
+        <v>19.62</v>
       </c>
       <c r="D243">
         <v>33.4</v>
@@ -17405,11 +18650,11 @@
       <c r="N243" s="3"/>
     </row>
     <row r="244" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B244">
-        <v>25</v>
-      </c>
-      <c r="C244" s="4">
-        <v>7</v>
+      <c r="B244" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C244" s="5">
+        <v>12.88</v>
       </c>
       <c r="D244">
         <v>33.4</v>
@@ -17426,11 +18671,11 @@
       <c r="N244" s="3"/>
     </row>
     <row r="245" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B245">
-        <v>26</v>
-      </c>
-      <c r="C245" s="4">
-        <v>0</v>
+      <c r="B245" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C245" s="5">
+        <v>6.55</v>
       </c>
       <c r="D245">
         <v>33.4</v>
@@ -17447,11 +18692,11 @@
       <c r="N245" s="3"/>
     </row>
     <row r="246" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B246">
-        <v>27</v>
-      </c>
-      <c r="C246" s="4">
-        <v>0</v>
+      <c r="B246" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="C246" s="5">
+        <v>0.22</v>
       </c>
       <c r="D246">
         <v>33.4</v>
@@ -17468,418 +18713,1099 @@
       <c r="N246" s="3"/>
     </row>
     <row r="247" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C247" s="4"/>
+      <c r="B247" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C247" s="5">
+        <v>-0.76</v>
+      </c>
       <c r="N247" s="3"/>
     </row>
     <row r="248" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C248" s="4"/>
+      <c r="B248" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="C248" s="5">
+        <v>-0.71</v>
+      </c>
       <c r="N248" s="2"/>
     </row>
     <row r="249" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C249" s="4"/>
+      <c r="B249" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="C249" s="5">
+        <v>-0.59</v>
+      </c>
       <c r="N249" s="2"/>
     </row>
     <row r="250" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C250" s="4"/>
+      <c r="B250" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C250" s="5">
+        <v>-0.39</v>
+      </c>
       <c r="N250" s="2"/>
     </row>
     <row r="251" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C251" s="4"/>
+      <c r="B251" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="C251" s="5">
+        <v>-0.26</v>
+      </c>
       <c r="N251" s="2"/>
     </row>
     <row r="252" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C252" s="4"/>
+      <c r="B252" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="C252" s="5">
+        <v>-0.46</v>
+      </c>
       <c r="N252" s="2"/>
     </row>
     <row r="253" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C253" s="4"/>
+      <c r="B253" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="C253" s="5">
+        <v>-0.5</v>
+      </c>
       <c r="N253" s="2"/>
     </row>
     <row r="254" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C254" s="4"/>
+      <c r="B254" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C254" s="5">
+        <v>-0.57999999999999996</v>
+      </c>
       <c r="N254" s="2"/>
     </row>
     <row r="255" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C255" s="4"/>
+      <c r="B255" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C255" s="5">
+        <v>-0.38</v>
+      </c>
       <c r="N255" s="2"/>
     </row>
     <row r="256" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C256" s="4"/>
+      <c r="B256" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>978</v>
+      </c>
       <c r="N256" s="2"/>
     </row>
-    <row r="257" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C257" s="4"/>
+    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B257" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C257" s="5">
+        <v>-0.49</v>
+      </c>
       <c r="N257" s="2"/>
     </row>
-    <row r="258" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C258" s="4"/>
+    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B258" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C258" s="5">
+        <v>-0.78</v>
+      </c>
       <c r="N258" s="2"/>
     </row>
-    <row r="259" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C259" s="4"/>
+    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B259" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C259" s="5">
+        <v>-0.25</v>
+      </c>
       <c r="N259" s="2"/>
     </row>
-    <row r="260" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C260" s="4"/>
+    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B260" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>968</v>
+      </c>
       <c r="N260" s="2"/>
     </row>
-    <row r="261" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C261" s="4"/>
+    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B261" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>970</v>
+      </c>
       <c r="N261" s="2"/>
     </row>
-    <row r="262" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C262" s="4"/>
+    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B262" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>986</v>
+      </c>
       <c r="N262" s="2"/>
     </row>
-    <row r="263" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C263" s="4"/>
+    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B263" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>988</v>
+      </c>
       <c r="N263" s="2"/>
     </row>
-    <row r="264" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C264" s="4"/>
+    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B264" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>990</v>
+      </c>
       <c r="N264" s="2"/>
     </row>
-    <row r="265" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C265" s="4"/>
+    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B265" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>992</v>
+      </c>
       <c r="N265" s="2"/>
     </row>
-    <row r="266" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C266" s="4"/>
+    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B266" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>994</v>
+      </c>
       <c r="N266" s="2"/>
     </row>
-    <row r="267" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C267" s="4"/>
+    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B267" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>988</v>
+      </c>
       <c r="N267" s="2"/>
     </row>
-    <row r="268" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C268" s="4"/>
+    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B268" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>997</v>
+      </c>
       <c r="N268" s="2"/>
     </row>
-    <row r="269" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C269" s="4"/>
+    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B269" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>976</v>
+      </c>
       <c r="N269" s="2"/>
     </row>
-    <row r="270" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C270" s="4"/>
+    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B270" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>988</v>
+      </c>
       <c r="N270" s="2"/>
     </row>
-    <row r="271" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C271" s="4"/>
+    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B271" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>1001</v>
+      </c>
       <c r="N271" s="2"/>
     </row>
-    <row r="272" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C272" s="4"/>
+    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B272" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>1003</v>
+      </c>
       <c r="N272" s="2"/>
     </row>
-    <row r="273" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C273" s="4"/>
+    <row r="273" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B273" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>1005</v>
+      </c>
       <c r="N273" s="2"/>
     </row>
-    <row r="274" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C274" s="4"/>
+    <row r="274" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B274" s="4" t="s">
+        <v>1006</v>
+      </c>
       <c r="N274" s="2"/>
     </row>
-    <row r="275" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C275" s="4"/>
+    <row r="275" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B275" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>1008</v>
+      </c>
       <c r="N275" s="2"/>
     </row>
-    <row r="276" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C276" s="4"/>
+    <row r="276" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B276" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>1010</v>
+      </c>
       <c r="N276" s="2"/>
     </row>
-    <row r="277" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C277" s="4"/>
+    <row r="277" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B277" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>997</v>
+      </c>
       <c r="N277" s="2"/>
     </row>
-    <row r="278" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C278" s="4"/>
+    <row r="278" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B278" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>980</v>
+      </c>
       <c r="N278" s="2"/>
     </row>
-    <row r="279" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C279" s="4"/>
+    <row r="279" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B279" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>992</v>
+      </c>
       <c r="N279" s="2"/>
     </row>
-    <row r="280" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C280" s="4"/>
+    <row r="280" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B280" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>1015</v>
+      </c>
       <c r="N280" s="2"/>
     </row>
-    <row r="281" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C281" s="4"/>
+    <row r="281" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B281" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>1017</v>
+      </c>
       <c r="N281" s="2"/>
     </row>
-    <row r="282" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C282" s="4"/>
+    <row r="282" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B282" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>1019</v>
+      </c>
       <c r="N282" s="2"/>
     </row>
-    <row r="283" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C283" s="4"/>
+    <row r="283" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B283" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>982</v>
+      </c>
       <c r="N283" s="2"/>
     </row>
-    <row r="284" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C284" s="4"/>
+    <row r="284" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B284" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>1022</v>
+      </c>
       <c r="N284" s="2"/>
     </row>
-    <row r="285" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C285" s="4"/>
+    <row r="285" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B285" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>990</v>
+      </c>
       <c r="N285" s="2"/>
     </row>
-    <row r="286" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C286" s="4"/>
+    <row r="286" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B286" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>1025</v>
+      </c>
       <c r="N286" s="2"/>
     </row>
-    <row r="287" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C287" s="4"/>
+    <row r="287" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B287" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="N287" s="2"/>
     </row>
-    <row r="288" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C288" s="4"/>
+    <row r="288" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B288" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>1010</v>
+      </c>
       <c r="N288" s="2"/>
     </row>
-    <row r="289" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C289" s="4"/>
+    <row r="289" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B289" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>1029</v>
+      </c>
       <c r="N289" s="2"/>
     </row>
-    <row r="290" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C290" s="4"/>
+    <row r="290" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B290" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>1031</v>
+      </c>
       <c r="N290" s="2"/>
     </row>
-    <row r="291" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C291" s="4"/>
+    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B291" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>1008</v>
+      </c>
       <c r="N291" s="2"/>
     </row>
-    <row r="292" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C292" s="4"/>
+    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B292" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>1033</v>
+      </c>
       <c r="N292" s="2"/>
     </row>
-    <row r="293" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C293" s="4"/>
+    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B293" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>1035</v>
+      </c>
       <c r="N293" s="2"/>
     </row>
-    <row r="294" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C294" s="4"/>
+    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B294" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>1037</v>
+      </c>
       <c r="N294" s="2"/>
     </row>
-    <row r="295" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C295" s="4"/>
+    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B295" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>1025</v>
+      </c>
       <c r="N295" s="2"/>
     </row>
-    <row r="296" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C296" s="4"/>
+    <row r="296" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B296" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>1029</v>
+      </c>
       <c r="N296" s="2"/>
     </row>
-    <row r="297" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C297" s="4"/>
+    <row r="297" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B297" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>980</v>
+      </c>
       <c r="N297" s="2"/>
     </row>
-    <row r="298" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C298" s="4"/>
+    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B298" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>973</v>
+      </c>
       <c r="N298" s="2"/>
     </row>
-    <row r="299" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C299" s="4"/>
+    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B299" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>1043</v>
+      </c>
       <c r="N299" s="2"/>
     </row>
-    <row r="300" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C300" s="4"/>
+    <row r="300" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B300" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="N300" s="2"/>
     </row>
-    <row r="301" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C301" s="4"/>
+    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B301" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="N301" s="2"/>
     </row>
-    <row r="302" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C302" s="4"/>
+    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B302" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="N302" s="2"/>
     </row>
-    <row r="303" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C303" s="4"/>
+    <row r="303" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B303" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>775</v>
+      </c>
       <c r="N303" s="2"/>
     </row>
-    <row r="304" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C304" s="4"/>
+    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B304" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="N304" s="2"/>
     </row>
-    <row r="305" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C305" s="4"/>
+    <row r="305" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B305" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>868</v>
+      </c>
       <c r="N305" s="3"/>
     </row>
-    <row r="306" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C306" s="4"/>
+    <row r="306" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B306" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>674</v>
+      </c>
       <c r="N306" s="3"/>
     </row>
-    <row r="307" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C307" s="4"/>
+    <row r="307" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B307" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>613</v>
+      </c>
       <c r="N307" s="3"/>
     </row>
-    <row r="308" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C308" s="1"/>
+    <row r="308" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B308" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>1053</v>
+      </c>
       <c r="N308" s="3"/>
     </row>
-    <row r="309" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C309" s="1"/>
+    <row r="309" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B309" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>1055</v>
+      </c>
       <c r="N309" s="3"/>
     </row>
-    <row r="310" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C310" s="1"/>
+    <row r="310" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B310" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="N310" s="3"/>
     </row>
-    <row r="311" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C311" s="1"/>
+    <row r="311" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B311" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>507</v>
+      </c>
       <c r="N311" s="3"/>
     </row>
-    <row r="312" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C312" s="1"/>
+    <row r="312" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B312" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>1058</v>
+      </c>
       <c r="N312" s="3"/>
     </row>
-    <row r="313" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C313" s="1"/>
+    <row r="313" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B313" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>472</v>
+      </c>
       <c r="N313" s="3"/>
     </row>
-    <row r="314" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C314" s="1"/>
+    <row r="314" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B314" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>507</v>
+      </c>
       <c r="N314" s="2"/>
     </row>
-    <row r="315" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C315" s="1"/>
+    <row r="315" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B315" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>814</v>
+      </c>
       <c r="N315" s="2"/>
     </row>
-    <row r="316" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C316" s="1"/>
+    <row r="316" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B316" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="N316" s="2"/>
     </row>
-    <row r="317" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C317" s="1"/>
+    <row r="317" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B317" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="N317" s="2"/>
     </row>
-    <row r="318" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C318" s="1"/>
+    <row r="318" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B318" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>681</v>
+      </c>
       <c r="N318" s="2"/>
     </row>
-    <row r="319" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C319" s="1"/>
+    <row r="319" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B319" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>1043</v>
+      </c>
       <c r="N319" s="2"/>
     </row>
-    <row r="320" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C320" s="1"/>
+    <row r="320" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B320" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>1055</v>
+      </c>
       <c r="N320" s="2"/>
     </row>
-    <row r="321" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C321" s="1"/>
+    <row r="321" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B321" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="N321" s="2"/>
     </row>
-    <row r="322" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C322" s="1"/>
+    <row r="322" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B322" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>507</v>
+      </c>
       <c r="N322" s="2"/>
     </row>
-    <row r="323" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C323" s="1"/>
+    <row r="323" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B323" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="N323" s="2"/>
     </row>
-    <row r="324" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C324" s="1"/>
+    <row r="324" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B324" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="N324" s="2"/>
     </row>
-    <row r="325" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C325" s="1"/>
+    <row r="325" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B325" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="N325" s="2"/>
     </row>
-    <row r="326" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C326" s="1"/>
+    <row r="326" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B326" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="N326" s="2"/>
     </row>
-    <row r="327" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C327" s="1"/>
+    <row r="327" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B327" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="N327" s="2"/>
     </row>
-    <row r="328" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C328" s="1"/>
+    <row r="328" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B328" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="N328" s="2"/>
     </row>
-    <row r="329" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C329" s="1"/>
+    <row r="329" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B329" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="N329" s="2"/>
     </row>
-    <row r="330" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C330" s="1"/>
+    <row r="330" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B330" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C330" s="5">
+        <v>1.23</v>
+      </c>
       <c r="N330" s="2"/>
     </row>
-    <row r="331" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C331" s="1"/>
+    <row r="331" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B331" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C331" s="5">
+        <v>1.58</v>
+      </c>
       <c r="N331" s="2"/>
     </row>
-    <row r="332" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C332" s="1"/>
+    <row r="332" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B332" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C332" s="5">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="N332" s="2"/>
     </row>
-    <row r="333" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C333" s="1"/>
+    <row r="333" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B333" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C333" s="5">
+        <v>1.37</v>
+      </c>
       <c r="N333" s="2"/>
     </row>
-    <row r="334" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C334" s="1"/>
+    <row r="334" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B334" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C334" s="5">
+        <v>0.91</v>
+      </c>
       <c r="N334" s="2"/>
     </row>
-    <row r="335" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C335" s="1"/>
+    <row r="335" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B335" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C335" s="5">
+        <v>1.01</v>
+      </c>
       <c r="N335" s="2"/>
     </row>
-    <row r="336" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C336" s="1"/>
+    <row r="336" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B336" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C336" s="5">
+        <v>1.05</v>
+      </c>
       <c r="N336" s="2"/>
     </row>
-    <row r="337" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C337" s="1"/>
+    <row r="337" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B337" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C337" s="5">
+        <v>1.35</v>
+      </c>
       <c r="N337" s="2"/>
     </row>
-    <row r="338" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C338" s="1"/>
+    <row r="338" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B338" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C338" s="5">
+        <v>1.27</v>
+      </c>
       <c r="N338" s="2"/>
     </row>
-    <row r="339" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C339" s="1"/>
+    <row r="339" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B339" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C339" s="5">
+        <v>1.37</v>
+      </c>
       <c r="N339" s="2"/>
     </row>
-    <row r="340" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C340" s="1"/>
+    <row r="340" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B340" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C340" s="5">
+        <v>0.79</v>
+      </c>
       <c r="N340" s="2"/>
     </row>
-    <row r="341" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C341" s="1"/>
+    <row r="341" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B341" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C341" s="5">
+        <v>1.04</v>
+      </c>
       <c r="N341" s="2"/>
     </row>
-    <row r="342" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C342" s="1"/>
+    <row r="342" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B342" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C342" s="5">
+        <v>0.98</v>
+      </c>
       <c r="N342" s="2"/>
     </row>
-    <row r="343" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C343" s="1"/>
+    <row r="343" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B343" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C343" s="5">
+        <v>0.42</v>
+      </c>
       <c r="N343" s="2"/>
     </row>
-    <row r="344" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C344" s="1"/>
+    <row r="344" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B344" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C344" s="5">
+        <v>0.47</v>
+      </c>
       <c r="N344" s="2"/>
     </row>
-    <row r="345" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C345" s="1"/>
+    <row r="345" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B345" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C345" s="5">
+        <v>0.64</v>
+      </c>
       <c r="N345" s="2"/>
     </row>
-    <row r="346" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C346" s="1"/>
+    <row r="346" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B346" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C346" s="5">
+        <v>0.87</v>
+      </c>
       <c r="N346" s="2"/>
     </row>
-    <row r="347" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C347" s="1"/>
+    <row r="347" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B347" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C347" s="5">
+        <v>0.45</v>
+      </c>
       <c r="N347" s="2"/>
     </row>
-    <row r="348" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C348" s="1"/>
+    <row r="348" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B348" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C348" s="5">
+        <v>0.5</v>
+      </c>
       <c r="N348" s="2"/>
     </row>
-    <row r="349" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C349" s="1"/>
+    <row r="349" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B349" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C349" s="5">
+        <v>0.6</v>
+      </c>
       <c r="N349" s="2"/>
     </row>
+    <row r="350" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B350" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C350" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="351" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B351" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C351" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="352" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B352" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C352" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C353" s="5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B354" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C354" s="5">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B355" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C355" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B356" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C356" s="5">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B357" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C357" s="5">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B358" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C358" s="5">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B359" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C359" s="5">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B360" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C360" s="5">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B361" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C361" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B362" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C362" s="5">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B363" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C363" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B364" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C364" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B365" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C365" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B366" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C366" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B367" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C367" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B368" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C368" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B369" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C369" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B370" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C370" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
